--- a/All Notebook - 3 Januari 2025/Baseline + Feature Selection/Rekap Baseline + Feature Selection.xlsx
+++ b/All Notebook - 3 Januari 2025/Baseline + Feature Selection/Rekap Baseline + Feature Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\K-NN\All Notebook - 3 Januari 2025\Baseline + Feature Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503E451-D7F5-4598-95CF-8322F109F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2790F-445A-4926-9815-C70EF21FF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{F54B60C6-868E-4E4C-9AF1-F94597DCB17F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Precision</t>
   </si>
@@ -93,15 +93,111 @@
   <si>
     <t>Tanpa Normalisasi</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AM2</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM5</t>
+  </si>
+  <si>
+    <t>AM6</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>PM2</t>
+  </si>
+  <si>
+    <t>PM3</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>PM5</t>
+  </si>
+  <si>
+    <t>PM6</t>
+  </si>
+  <si>
+    <t>PM7</t>
+  </si>
+  <si>
+    <t>RM1</t>
+  </si>
+  <si>
+    <t>RM2</t>
+  </si>
+  <si>
+    <t>RM3</t>
+  </si>
+  <si>
+    <t>RM4</t>
+  </si>
+  <si>
+    <t>RM5</t>
+  </si>
+  <si>
+    <t>RM6</t>
+  </si>
+  <si>
+    <t>RM7</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>FM3</t>
+  </si>
+  <si>
+    <t>FM4</t>
+  </si>
+  <si>
+    <t>FM5</t>
+  </si>
+  <si>
+    <t>FM6</t>
+  </si>
+  <si>
+    <t>FM7</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E633E2-D218-475D-8088-A9767ED0BE5F}">
   <dimension ref="B2:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:S73"/>
+    <sheetView zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4572,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951A5AEA-3328-46CC-84F6-321CB12D2E98}">
-  <dimension ref="B2:S54"/>
+  <dimension ref="B2:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5393,7 +5489,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
       <c r="C17" s="7">
         <v>19</v>
@@ -5447,9 +5543,125 @@
         <v>0.81</v>
       </c>
     </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>17</v>
+      </c>
+    </row>
     <row r="54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B2:B3"/>
@@ -5458,14 +5670,8 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>